--- a/data/spreadsheets/Location.xlsx
+++ b/data/spreadsheets/Location.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4263375D-0D38-3342-9B10-A1E846A7EC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB50949-8D22-B046-B54E-5ABC4991052C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34380" yWindow="580" windowWidth="39040" windowHeight="26760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="500" windowWidth="72840" windowHeight="26760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="229">
   <si>
     <t>ID</t>
   </si>
@@ -706,6 +706,12 @@
   </si>
   <si>
     <t>I_030</t>
+  </si>
+  <si>
+    <t>Noémi Villars-Amberg, Daniela Subotic</t>
+  </si>
+  <si>
+    <t>Authorship Resource</t>
   </si>
 </sst>
 </file>
@@ -813,7 +819,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -895,9 +922,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I33" totalsRowShown="0">
-  <autoFilter ref="A1:I33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J33" totalsRowShown="0">
+  <autoFilter ref="A1:J33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Location Type List"/>
@@ -907,6 +934,7 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description DE"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Description FR"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Description IT"/>
+    <tableColumn id="10" xr3:uid="{0BD396A6-B84D-604E-8143-14B8B1BBB11C}" name="Authorship Resource" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1088,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
@@ -1104,10 +1132,11 @@
     <col min="7" max="7" width="72.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="80" style="1" customWidth="1"/>
     <col min="9" max="9" width="76.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.6640625" style="1"/>
+    <col min="10" max="10" width="42.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1135,8 +1164,11 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1162,8 +1194,11 @@
       <c r="I2" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1189,8 +1224,11 @@
       <c r="I3" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1216,8 +1254,11 @@
       <c r="I4" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -1243,8 +1284,11 @@
       <c r="I5" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
@@ -1268,8 +1312,11 @@
       <c r="I6" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -1295,8 +1342,11 @@
       <c r="I7" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
@@ -1322,8 +1372,11 @@
       <c r="I8" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>56</v>
       </c>
@@ -1349,8 +1402,11 @@
       <c r="I9" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>62</v>
       </c>
@@ -1376,8 +1432,11 @@
       <c r="I10" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>69</v>
       </c>
@@ -1403,8 +1462,11 @@
       <c r="I11" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>76</v>
       </c>
@@ -1430,8 +1492,11 @@
       <c r="I12" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>82</v>
       </c>
@@ -1457,8 +1522,11 @@
       <c r="I13" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>88</v>
       </c>
@@ -1484,8 +1552,11 @@
       <c r="I14" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>94</v>
       </c>
@@ -1511,8 +1582,11 @@
       <c r="I15" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>100</v>
       </c>
@@ -1538,8 +1612,11 @@
       <c r="I16" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>107</v>
       </c>
@@ -1565,8 +1642,11 @@
       <c r="I17" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>113</v>
       </c>
@@ -1592,8 +1672,11 @@
       <c r="I18" s="8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>119</v>
       </c>
@@ -1619,8 +1702,11 @@
       <c r="I19" s="8" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>125</v>
       </c>
@@ -1644,8 +1730,11 @@
       <c r="I20" s="8" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>131</v>
       </c>
@@ -1671,8 +1760,11 @@
       <c r="I21" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>138</v>
       </c>
@@ -1698,8 +1790,11 @@
       <c r="I22" s="8" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>144</v>
       </c>
@@ -1725,8 +1820,11 @@
       <c r="I23" s="8" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>150</v>
       </c>
@@ -1752,8 +1850,11 @@
       <c r="I24" s="8" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>156</v>
       </c>
@@ -1777,8 +1878,11 @@
       <c r="I25" s="8" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>162</v>
       </c>
@@ -1802,8 +1906,11 @@
       <c r="I26" s="8" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J26" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>168</v>
       </c>
@@ -1827,8 +1934,11 @@
       <c r="I27" s="8" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J27" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>174</v>
       </c>
@@ -1852,8 +1962,11 @@
       <c r="I28" s="8" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J28" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>179</v>
       </c>
@@ -1879,8 +1992,11 @@
       <c r="I29" s="8" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J29" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>186</v>
       </c>
@@ -1906,8 +2022,11 @@
       <c r="I30" s="8" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J30" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>192</v>
       </c>
@@ -1933,8 +2052,11 @@
       <c r="I31" s="8" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J31" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>198</v>
       </c>
@@ -1960,8 +2082,11 @@
       <c r="I32" s="8" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J32" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>205</v>
       </c>
@@ -1987,17 +2112,20 @@
       <c r="I33" s="8" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J33" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="10"/>
     </row>
   </sheetData>

--- a/data/spreadsheets/Location.xlsx
+++ b/data/spreadsheets/Location.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB50949-8D22-B046-B54E-5ABC4991052C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64C8B9A-77E8-A841-B79A-C1EC97E80B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="500" windowWidth="72840" windowHeight="26760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33660" yWindow="500" windowWidth="37860" windowHeight="31500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,18 +354,6 @@
     <t>Mad Hatters's Tea Room</t>
   </si>
   <si>
-    <t>The outdoor setting where Alice meets the Queen’s gardeners.</t>
-  </si>
-  <si>
-    <t>Die Umgebung im Freien, in der Alice die Gärtner der Königin trifft.</t>
-  </si>
-  <si>
-    <t>Le décor extérieur où Alice rencontre les jardiniers de la reine.</t>
-  </si>
-  <si>
-    <t>L'ambiente esterno dove Alice incontra i giardinieri della Regina.</t>
-  </si>
-  <si>
     <t>L_018</t>
   </si>
   <si>
@@ -465,9 +453,6 @@
     <t>Queen's Garden</t>
   </si>
   <si>
-    <t>The Queen’s Garden.</t>
-  </si>
-  <si>
     <t>Der Garten der Königin.</t>
   </si>
   <si>
@@ -712,6 +697,21 @@
   </si>
   <si>
     <t>Authorship Resource</t>
+  </si>
+  <si>
+    <t>The Queen’s Garden. The outdoor setting where Alice meets the Queen’s gardeners.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An open air Tea Room where Alice attends a weird tea party. </t>
+  </si>
+  <si>
+    <t>Ein Tearoom unter freiem Himmel, in dem Alice an einer seltsamen Teeparty teilnimmt.</t>
+  </si>
+  <si>
+    <t>Un salon de thé en plein air où Alice assiste à un étrange goûter.</t>
+  </si>
+  <si>
+    <t>Una sala da tè all'aperto dove Alice partecipa a uno strano tea party.</t>
   </si>
 </sst>
 </file>
@@ -924,6 +924,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J33" totalsRowShown="0">
   <autoFilter ref="A1:J33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J33">
+    <sortCondition ref="A1:A33"/>
+  </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
@@ -1119,7 +1122,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
@@ -1165,305 +1168,301 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>157</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5" t="s">
-        <v>224</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="7" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="8" t="s">
-        <v>18</v>
+      <c r="E3" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>49</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="8" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>187</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
-        <v>32</v>
+      <c r="D5" s="4"/>
+      <c r="E5" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>35</v>
+        <v>191</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>163</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="7" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>121</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8" t="s">
-        <v>214</v>
-      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="7" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="8" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>127</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="4">
-        <v>6269131</v>
+        <v>2640729</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="7" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="8" t="s">
-        <v>71</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D11" s="4">
+        <v>6269131</v>
+      </c>
+      <c r="E11" s="5"/>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1478,7 +1477,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>78</v>
@@ -1493,627 +1492,631 @@
         <v>81</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>213</v>
+        <v>69</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5" t="s">
-        <v>83</v>
+      <c r="D13" s="4"/>
+      <c r="E13" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>89</v>
+        <v>140</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>95</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5" t="s">
-        <v>223</v>
+      <c r="D15" s="4"/>
+      <c r="E15" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>101</v>
+        <v>169</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>207</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="E16" s="5"/>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>108</v>
+        <v>43</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="8" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>114</v>
+        <v>193</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="8" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2640729</v>
-      </c>
-      <c r="E19" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>126</v>
+        <v>9</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="F20" s="7" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>132</v>
+        <v>56</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="5" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="5" t="s">
-        <v>226</v>
+      <c r="E22" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>145</v>
+        <v>134</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>151</v>
+        <v>100</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5" t="s">
-        <v>220</v>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F25" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>163</v>
+        <v>82</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F26" s="7" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="F27" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>212</v>
+        <v>200</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="8" t="s">
+        <v>202</v>
+      </c>
       <c r="F28" s="7" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="8" t="s">
-        <v>181</v>
+      <c r="E29" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>193</v>
+        <v>181</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="8" t="s">
-        <v>225</v>
+      <c r="D31" s="6"/>
+      <c r="E31" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="8" t="s">
-        <v>200</v>
-      </c>
+      <c r="E32" s="5"/>
       <c r="F32" s="7" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>205</v>
+        <v>37</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>206</v>
+        <v>38</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="8" t="s">
-        <v>207</v>
-      </c>
+      <c r="E33" s="5"/>
       <c r="F33" s="7" t="s">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
